--- a/sheet_engine/test_sheets/generated_subject_staff_combinations.xlsx
+++ b/sheet_engine/test_sheets/generated_subject_staff_combinations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\generated_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86058B-AB6A-4949-A0AE-36AF3CCBAF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CBCAC2-4A1F-4B59-9EBE-1B04F3314024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Mathematics</t>
   </si>
   <si>
-    <t>SC11</t>
-  </si>
-  <si>
     <t>1 General Science B</t>
   </si>
   <si>
@@ -74,13 +71,28 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>SCI11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,12 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +549,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +689,8 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>110</v>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,8 +706,8 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>1120</v>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,21 +718,21 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>110</v>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -721,25 +740,25 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>1120</v>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -748,6 +767,7 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A1:G8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
